--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_LinkingWorkbooks.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_LinkingWorkbooks.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V3 Linking Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AA66F-6091-45D0-B280-F2D7A8F4B574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23064" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR SYDNEY" sheetId="8" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="MileageRate" localSheetId="0">'HR SYDNEY'!$C$4</definedName>
     <definedName name="MileageRate">#REF!</definedName>
     <definedName name="WeekEnding" localSheetId="0">'HR SYDNEY'!$C$3</definedName>
     <definedName name="WeekEnding">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -117,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -482,15 +488,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -541,7 +547,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -556,6 +562,289 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Uma"/>
+      <sheetName val="Carlos"/>
+      <sheetName val="HR Q1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="F7">
+            <v>848</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>568.16000000000008</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>63.320000000000007</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>193.10000000000002</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>435.31999999999994</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>213.38</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>1035.0900000000001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>496.5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sean"/>
+      <sheetName val="Uma"/>
+      <sheetName val="Carlos"/>
+      <sheetName val="HR Q2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="F7">
+            <v>1170</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>783.90000000000009</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>81.539999999999992</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>289</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>15.63</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>991.5100000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>532.09999999999991</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>121.22</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>496.5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>65.319999999999993</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sean"/>
+      <sheetName val="Uma"/>
+      <sheetName val="Carlos"/>
+      <sheetName val="HR Q3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="F7">
+            <v>1720</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>1152.4000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>242.4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>107.38000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>560</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>695</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>667.18000000000006</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>145.80000000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>245.60000000000002</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>2855.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>496.5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>85.48</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -875,19 +1164,19 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="17.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
@@ -900,8 +1189,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -909,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
@@ -917,7 +1206,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
@@ -937,112 +1226,175 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5">
+        <f>('[1]HR Q1'!F7)</f>
+        <v>848</v>
+      </c>
+      <c r="D7" s="5">
+        <f>('[2]HR Q2'!F7)</f>
+        <v>1170</v>
+      </c>
+      <c r="E7" s="5">
+        <f>('[3]HR Q3'!F7)</f>
+        <v>1720</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="20">
         <f t="shared" ref="G7:G13" si="0">SUM(C7:F7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <f>('[1]HR Q1'!F8)</f>
+        <v>568.16000000000008</v>
+      </c>
+      <c r="D8" s="7">
+        <f>('[2]HR Q2'!F8)</f>
+        <v>783.90000000000009</v>
+      </c>
+      <c r="E8" s="7">
+        <f>('[3]HR Q3'!F8)</f>
+        <v>1152.4000000000001</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2504.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7">
+        <f>('[1]HR Q1'!F9)</f>
+        <v>145</v>
+      </c>
+      <c r="D9" s="7">
+        <f>('[2]HR Q2'!F9)</f>
+        <v>185</v>
+      </c>
+      <c r="E9" s="7">
+        <f>('[3]HR Q3'!F9)</f>
+        <v>242.4</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>572.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7">
+        <f>('[1]HR Q1'!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f>('[2]HR Q2'!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>('[3]HR Q3'!F10)</f>
+        <v>0</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7">
+        <f>('[1]HR Q1'!F11)</f>
+        <v>63.320000000000007</v>
+      </c>
+      <c r="D11" s="7">
+        <f>('[2]HR Q2'!F11)</f>
+        <v>81.539999999999992</v>
+      </c>
+      <c r="E11" s="7">
+        <f>('[3]HR Q3'!F11)</f>
+        <v>107.38000000000001</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>252.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="7">
+        <f>('[1]HR Q1'!F12)</f>
+        <v>375</v>
+      </c>
+      <c r="D12" s="7">
+        <f>('[2]HR Q2'!F12)</f>
+        <v>375</v>
+      </c>
+      <c r="E12" s="7">
+        <f>('[3]HR Q3'!F12)</f>
+        <v>375</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7">
+        <f>('[1]HR Q1'!F13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f>('[2]HR Q2'!F13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <f>('[3]HR Q3'!F13)</f>
+        <v>560</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="10">
         <f>SUM(C8:C13)</f>
-        <v>0</v>
+        <v>1151.48</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" ref="D14:G14" si="1">SUM(D8:D13)</f>
-        <v>0</v>
+        <v>1425.44</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2437.1800000000003</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
@@ -1050,10 +1402,10 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5014.1000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1061,7 +1413,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
@@ -1071,73 +1423,109 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="7">
+        <f>('[1]HR Q1'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>('[2]HR Q2'!F17)</f>
+        <v>289</v>
+      </c>
+      <c r="E17" s="7">
+        <f>('[3]HR Q3'!F17)</f>
+        <v>695</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="20">
         <f t="shared" ref="G17:G20" si="2">SUM(C17:F17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="7">
+        <f>('[1]HR Q1'!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>('[2]HR Q2'!F18)</f>
+        <v>15.63</v>
+      </c>
+      <c r="E18" s="7">
+        <f>('[3]HR Q3'!F18)</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="7">
+        <f>('[1]HR Q1'!F19)</f>
+        <v>193.10000000000002</v>
+      </c>
+      <c r="D19" s="7">
+        <f>('[2]HR Q2'!F19)</f>
+        <v>991.5100000000001</v>
+      </c>
+      <c r="E19" s="7">
+        <f>('[3]HR Q3'!F19)</f>
+        <v>667.18000000000006</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1851.7900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="7">
+        <f>('[1]HR Q1'!F20)</f>
+        <v>435.31999999999994</v>
+      </c>
+      <c r="D20" s="7">
+        <f>('[2]HR Q2'!F20)</f>
+        <v>532.09999999999991</v>
+      </c>
+      <c r="E20" s="7">
+        <f>('[3]HR Q3'!F20)</f>
+        <v>145.80000000000001</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1113.2199999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="10">
         <f>SUM(C17:C20)</f>
-        <v>0</v>
+        <v>628.41999999999996</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(D17:D20)</f>
-        <v>0</v>
+        <v>1828.24</v>
       </c>
       <c r="E21" s="10">
         <f>SUM(E17:E20)</f>
-        <v>0</v>
+        <v>1507.98</v>
       </c>
       <c r="F21" s="10">
         <f>SUM(F17:F20)</f>
@@ -1145,10 +1533,10 @@
       </c>
       <c r="G21" s="10">
         <f>SUM(G17:G20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3964.64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1156,7 +1544,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
@@ -1166,73 +1554,109 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="7">
+        <f>('[1]HR Q1'!F24)</f>
+        <v>213.38</v>
+      </c>
+      <c r="D24" s="7">
+        <f>('[2]HR Q2'!F24)</f>
+        <v>121.22</v>
+      </c>
+      <c r="E24" s="7">
+        <f>('[3]HR Q3'!F24)</f>
+        <v>245.60000000000002</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="13">
         <f>SUM(C24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>580.20000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="7">
+        <f>('[1]HR Q1'!F25)</f>
+        <v>1035.0900000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <f>('[2]HR Q2'!F25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <f>('[3]HR Q3'!F25)</f>
+        <v>2855.1</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="13">
         <f t="shared" ref="G25:G27" si="3">SUM(C25:F25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3890.19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="7">
+        <f>('[1]HR Q1'!F26)</f>
+        <v>496.5</v>
+      </c>
+      <c r="D26" s="7">
+        <f>('[2]HR Q2'!F26)</f>
+        <v>496.5</v>
+      </c>
+      <c r="E26" s="7">
+        <f>('[3]HR Q3'!F26)</f>
+        <v>496.5</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1489.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="7">
+        <f>('[1]HR Q1'!F27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <f>('[2]HR Q2'!F27)</f>
+        <v>65.319999999999993</v>
+      </c>
+      <c r="E27" s="7">
+        <f>('[3]HR Q3'!F27)</f>
+        <v>85.48</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="10">
         <f>SUM(C24:C27)</f>
-        <v>0</v>
+        <v>1744.9700000000003</v>
       </c>
       <c r="D28" s="10">
         <f>SUM(D24:D27)</f>
-        <v>0</v>
+        <v>683.04</v>
       </c>
       <c r="E28" s="10">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>3682.68</v>
       </c>
       <c r="F28" s="10">
         <f>SUM(F24:F27)</f>
@@ -1240,10 +1664,10 @@
       </c>
       <c r="G28" s="10">
         <f>SUM(G24:G27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6110.6900000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1251,21 +1675,21 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="15">
         <f>SUM(C14,C21,C28)</f>
-        <v>0</v>
+        <v>3524.8700000000003</v>
       </c>
       <c r="D30" s="15">
         <f>SUM(D14,D21,D28)</f>
-        <v>0</v>
+        <v>3936.7200000000003</v>
       </c>
       <c r="E30" s="15">
         <f>SUM(E14,E21,E28)</f>
-        <v>0</v>
+        <v>7627.84</v>
       </c>
       <c r="F30" s="15">
         <f>SUM(F14,F21,F28)</f>
@@ -1273,10 +1697,10 @@
       </c>
       <c r="G30" s="15">
         <f>SUM(G14,G21,G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15089.43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1284,7 +1708,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
